--- a/com.crm.VtigerProject/src/test/resources/TestData.xlsx
+++ b/com.crm.VtigerProject/src/test/resources/TestData.xlsx
@@ -3,21 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\com.crm.VtigerProject\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D72E1C-11B2-4F67-824A-ED7F07C4881D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{22C1F3E9-C925-4A7B-A037-61D662FBC5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="3015" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="dataprovider" sheetId="3" r:id="rId2"/>
     <sheet name="Organisation" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:I16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>FirstName</t>
   </si>
@@ -57,16 +54,165 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Other Email</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Phone	</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping City		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping State	</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>Capgemini</t>
+  </si>
+  <si>
+    <t>www.amazon.com</t>
+  </si>
+  <si>
+    <t>www.tcs.com</t>
+  </si>
+  <si>
+    <t>www.infosys.com</t>
+  </si>
+  <si>
+    <t>www.capgemini.com</t>
+  </si>
+  <si>
+    <t>www.cts.com</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>amazon@gmai.com</t>
+  </si>
+  <si>
+    <t>cts@gmai.com</t>
+  </si>
+  <si>
+    <t>tcs@gmai.com</t>
+  </si>
+  <si>
+    <t>infosys@gmai.com</t>
+  </si>
+  <si>
+    <t>capgemini@gmai.com</t>
+  </si>
+  <si>
+    <t>amazon@outlook.com</t>
+  </si>
+  <si>
+    <t>cts@outlook.com</t>
+  </si>
+  <si>
+    <t>tcs@outlook.com</t>
+  </si>
+  <si>
+    <t>infosys@outlook.com</t>
+  </si>
+  <si>
+    <t>capgemini@outlook.com</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>Trivandrun</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket Symbol	</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Finance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,14 +241,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD1EB11-49D3-4A54-A0B9-073144E31AB9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,28 +621,288 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7034A881-56A3-4822-A7E7-526AFE6120D0}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2">
+        <v>919677672235</v>
+      </c>
+      <c r="H2">
+        <v>9684821360361</v>
+      </c>
+      <c r="I2">
+        <v>236612</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4">
+        <v>300</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3">
+        <v>919677672236</v>
+      </c>
+      <c r="H3">
+        <v>9684821360362</v>
+      </c>
+      <c r="I3">
+        <v>236613</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4">
+        <v>400</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>919677672237</v>
+      </c>
+      <c r="H4">
+        <v>9684821360362</v>
+      </c>
+      <c r="I4">
+        <v>236614</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4">
+        <v>250</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5">
+        <v>919677672238</v>
+      </c>
+      <c r="H5">
+        <v>9684821360363</v>
+      </c>
+      <c r="I5">
+        <v>236615</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4">
+        <v>150</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>919677672239</v>
+      </c>
+      <c r="H6">
+        <v>9684821360363</v>
+      </c>
+      <c r="I6">
+        <v>236616</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{72218A38-2D67-47FD-9ED3-F884B287CCE8}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{094DE229-0885-41A1-AD9F-B01920E52746}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{CE69A28C-96CA-4E34-9014-05D19F402BD9}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{9DC43E19-867D-41F8-9252-494F556942B6}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{71C1BD05-97C5-4911-A088-F0E94BD6EE8B}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{71934518-B854-4966-B125-A145F4E2BF55}"/>
+    <hyperlink ref="E3:E6" r:id="rId7" display="amazon@gmai.com" xr:uid="{B82D28A2-774D-4268-AA26-E3801A7D4A79}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{FB7BFB58-155F-4C9F-8811-62D58898A35A}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{ACE0D6E8-0CFF-41F9-9DC7-1EB5C9144078}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{E4C03CA1-E8D2-405D-9B57-DD494BB87EB2}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{3138BE51-B89A-4F15-9B31-5818C4D89F8C}"/>
+    <hyperlink ref="J2" r:id="rId12" xr:uid="{AFBB51AA-4A06-4674-936F-B54EA132CDA6}"/>
+    <hyperlink ref="J3:J6" r:id="rId13" display="amazon@outlook.com" xr:uid="{E206EF32-2F4C-42FA-A004-31EFC2451C1A}"/>
+    <hyperlink ref="J3" r:id="rId14" xr:uid="{B55D2AAB-F3A3-4A47-A013-BB5ECB61586A}"/>
+    <hyperlink ref="J4" r:id="rId15" xr:uid="{31615B77-0F17-45E9-A133-F0AB7F4806A5}"/>
+    <hyperlink ref="J5" r:id="rId16" xr:uid="{403907A8-6F93-4BB3-B89D-1B72FECF38EA}"/>
+    <hyperlink ref="J6" r:id="rId17" xr:uid="{1029547C-D810-49B6-B024-74899D556F3D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAA4203-B69B-4732-B401-C13429FF6F05}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>